--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.48989036967095</v>
+        <v>89.26717035538721</v>
       </c>
       <c r="D2" t="n">
-        <v>2.885792883568623</v>
+        <v>4.126532063337349</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.97485551036694</v>
+        <v>89.4153684891625</v>
       </c>
       <c r="D3" t="n">
-        <v>3.857587414951724</v>
+        <v>4.171109178067337</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.644535173085</v>
+        <v>88.26495857507496</v>
       </c>
       <c r="D4" t="n">
-        <v>3.683053579487572</v>
+        <v>3.653754935489251</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.57588115457234</v>
+        <v>86.5091074683088</v>
       </c>
       <c r="D5" t="n">
-        <v>3.424029864482513</v>
+        <v>3.637929327669618</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.39163378809442</v>
+        <v>85.63123311720607</v>
       </c>
       <c r="D6" t="n">
-        <v>3.704767801156641</v>
+        <v>3.63600589966618</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.03753660983998</v>
+        <v>84.98759634758561</v>
       </c>
       <c r="D7" t="n">
-        <v>3.481110077174556</v>
+        <v>3.844180313825954</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.37285033314363</v>
+        <v>83.74406002761194</v>
       </c>
       <c r="D8" t="n">
-        <v>3.86695549516279</v>
+        <v>3.798128495141492</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.71313166451799</v>
+        <v>83.10364483076508</v>
       </c>
       <c r="D9" t="n">
-        <v>3.983518011956969</v>
+        <v>3.277963081998744</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.28678332270538</v>
+        <v>82.27288683833216</v>
       </c>
       <c r="D10" t="n">
-        <v>3.401816220042665</v>
+        <v>3.689249703854148</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.4962851204165</v>
+        <v>81.10510996193779</v>
       </c>
       <c r="D11" t="n">
-        <v>4.059949876012102</v>
+        <v>3.670685465660673</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.31463949877777</v>
+        <v>79.5223132651539</v>
       </c>
       <c r="D12" t="n">
-        <v>3.486041182826974</v>
+        <v>4.102428808878385</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.78900493423636</v>
+        <v>79.96507953197072</v>
       </c>
       <c r="D13" t="n">
-        <v>4.248604726194707</v>
+        <v>4.314336541950112</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.25710665760271</v>
+        <v>78.3105046966121</v>
       </c>
       <c r="D14" t="n">
-        <v>3.820692841562551</v>
+        <v>3.82603895867801</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.46642706639388</v>
+        <v>77.25563773193049</v>
       </c>
       <c r="D15" t="n">
-        <v>3.828782464159726</v>
+        <v>3.982112697521676</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.43845419487329</v>
+        <v>75.26197875330993</v>
       </c>
       <c r="D16" t="n">
-        <v>4.058467418809926</v>
+        <v>3.766478603289599</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.35301412792177</v>
+        <v>75.4137543956243</v>
       </c>
       <c r="D17" t="n">
-        <v>3.888421058547324</v>
+        <v>3.540450352093891</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.89454372561944</v>
+        <v>74.16779434169565</v>
       </c>
       <c r="D18" t="n">
-        <v>4.132118691493176</v>
+        <v>3.755157418023289</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.85807778221954</v>
+        <v>73.14948639497433</v>
       </c>
       <c r="D19" t="n">
-        <v>4.169573272087066</v>
+        <v>4.132112186156476</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.22736226318351</v>
+        <v>71.82899296320171</v>
       </c>
       <c r="D20" t="n">
-        <v>3.980141048605214</v>
+        <v>3.757720050192432</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.70332901878268</v>
+        <v>70.80537190801138</v>
       </c>
       <c r="D21" t="n">
-        <v>4.132757698752921</v>
+        <v>3.750938337178879</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.45778304215506</v>
+        <v>69.70207836529765</v>
       </c>
       <c r="D22" t="n">
-        <v>4.457890644717575</v>
+        <v>4.131692030118801</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.96708513994224</v>
+        <v>68.86665492511347</v>
       </c>
       <c r="D23" t="n">
-        <v>4.945340085014022</v>
+        <v>3.776951462747897</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.85594145714127</v>
+        <v>67.886508059642</v>
       </c>
       <c r="D24" t="n">
-        <v>4.647179854997121</v>
+        <v>4.178336773026036</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96998785166097</v>
+        <v>66.55823958034634</v>
       </c>
       <c r="D25" t="n">
-        <v>4.421746974618279</v>
+        <v>4.621064408262044</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.38769382833591</v>
+        <v>65.10769572973069</v>
       </c>
       <c r="D26" t="n">
-        <v>4.268415096056128</v>
+        <v>4.103202009871374</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.0547446960956</v>
+        <v>64.01673890057725</v>
       </c>
       <c r="D27" t="n">
-        <v>4.352431021459492</v>
+        <v>4.598797022884974</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.26257840899734</v>
+        <v>63.51782022235757</v>
       </c>
       <c r="D28" t="n">
-        <v>4.390072931732431</v>
+        <v>4.062531749740248</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.31190805616315</v>
+        <v>63.31740048344077</v>
       </c>
       <c r="D29" t="n">
-        <v>4.274582217162667</v>
+        <v>5.111945726409466</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.15148145537407</v>
+        <v>61.87948681226997</v>
       </c>
       <c r="D30" t="n">
-        <v>3.937983927749757</v>
+        <v>4.91774991092043</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.96826697105534</v>
+        <v>60.78027284493615</v>
       </c>
       <c r="D31" t="n">
-        <v>4.152641533417792</v>
+        <v>4.549044175444536</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.15525520998812</v>
+        <v>60.00660133949987</v>
       </c>
       <c r="D32" t="n">
-        <v>4.132613290273756</v>
+        <v>4.543819249079576</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00124764149956</v>
+        <v>58.66854296830647</v>
       </c>
       <c r="D33" t="n">
-        <v>3.736151799170428</v>
+        <v>4.713702010241856</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.5027389751079</v>
+        <v>58.26646262666149</v>
       </c>
       <c r="D34" t="n">
-        <v>4.515685436121884</v>
+        <v>4.433241509624671</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.53377299201362</v>
+        <v>56.68476544125777</v>
       </c>
       <c r="D35" t="n">
-        <v>4.667139088420775</v>
+        <v>4.725555212107749</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.7900266072845</v>
+        <v>56.38976900790126</v>
       </c>
       <c r="D36" t="n">
-        <v>4.514648973684262</v>
+        <v>4.143843277353561</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.99525840497068</v>
+        <v>54.66422749124461</v>
       </c>
       <c r="D37" t="n">
-        <v>4.872988786575688</v>
+        <v>5.082515442294784</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.87303055706686</v>
+        <v>53.94680960538122</v>
       </c>
       <c r="D38" t="n">
-        <v>4.737691156097778</v>
+        <v>5.22650807852091</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.05105651620359</v>
+        <v>52.64919550684044</v>
       </c>
       <c r="D39" t="n">
-        <v>4.659303271880395</v>
+        <v>4.204886631269258</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.6011068832502</v>
+        <v>51.97690425271585</v>
       </c>
       <c r="D40" t="n">
-        <v>4.304705164521438</v>
+        <v>4.273063287045835</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.32240187663676</v>
+        <v>50.80353877167187</v>
       </c>
       <c r="D41" t="n">
-        <v>5.171378421975092</v>
+        <v>4.648551747243002</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.90202516410926</v>
+        <v>50.13626449107701</v>
       </c>
       <c r="D42" t="n">
-        <v>5.005300172578764</v>
+        <v>4.717073744896098</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.77124180266134</v>
+        <v>48.16310966207094</v>
       </c>
       <c r="D43" t="n">
-        <v>5.025936200397514</v>
+        <v>4.94462829342947</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.78488630359375</v>
+        <v>48.22741220607597</v>
       </c>
       <c r="D44" t="n">
-        <v>4.403076730778563</v>
+        <v>4.407056543365318</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.51345364102937</v>
+        <v>46.85106300505829</v>
       </c>
       <c r="D45" t="n">
-        <v>5.284374143128597</v>
+        <v>4.405306762930012</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.60785629712067</v>
+        <v>45.91314982973359</v>
       </c>
       <c r="D46" t="n">
-        <v>4.681289075910763</v>
+        <v>4.546000255768544</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.67156079784444</v>
+        <v>44.63020836674536</v>
       </c>
       <c r="D47" t="n">
-        <v>5.38523860944219</v>
+        <v>5.016229272056552</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.55277593980872</v>
+        <v>44.39188415054108</v>
       </c>
       <c r="D48" t="n">
-        <v>4.36745761924523</v>
+        <v>5.084302871808966</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.39604093517114</v>
+        <v>42.53913055827457</v>
       </c>
       <c r="D49" t="n">
-        <v>4.651032001960469</v>
+        <v>4.229850135137458</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.21439774593652</v>
+        <v>41.46470027687304</v>
       </c>
       <c r="D50" t="n">
-        <v>5.178897543468724</v>
+        <v>5.266809648931261</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.07449929949307</v>
+        <v>40.82634573768703</v>
       </c>
       <c r="D51" t="n">
-        <v>5.170342380761748</v>
+        <v>5.471683493937443</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.57302248368263</v>
+        <v>39.7910823414264</v>
       </c>
       <c r="D52" t="n">
-        <v>5.398121711554668</v>
+        <v>5.042903924413006</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.42124261834833</v>
+        <v>39.58497152503133</v>
       </c>
       <c r="D53" t="n">
-        <v>5.377346845467552</v>
+        <v>4.929802221636104</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.60716391063558</v>
+        <v>37.99491025887761</v>
       </c>
       <c r="D54" t="n">
-        <v>4.701050655041257</v>
+        <v>4.664597314760284</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.34948660217393</v>
+        <v>35.79848584556925</v>
       </c>
       <c r="D55" t="n">
-        <v>4.626045835170808</v>
+        <v>4.559262071919918</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.33670000159333</v>
+        <v>36.09049607219033</v>
       </c>
       <c r="D56" t="n">
-        <v>5.130948895459085</v>
+        <v>4.839958664939385</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.88857326290015</v>
+        <v>35.05069546811297</v>
       </c>
       <c r="D57" t="n">
-        <v>5.163065059971635</v>
+        <v>5.47613447668502</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.00537278895084</v>
+        <v>33.88461482525643</v>
       </c>
       <c r="D58" t="n">
-        <v>5.935615026425698</v>
+        <v>5.504131941386109</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.05360261608285</v>
+        <v>32.81940390426195</v>
       </c>
       <c r="D59" t="n">
-        <v>5.242372863965302</v>
+        <v>5.339963234782067</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.59078124525861</v>
+        <v>31.73835190310309</v>
       </c>
       <c r="D60" t="n">
-        <v>5.516320422297831</v>
+        <v>5.447144296872969</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.8417381270176</v>
+        <v>31.48881363450847</v>
       </c>
       <c r="D61" t="n">
-        <v>5.081616530172588</v>
+        <v>4.787944373272754</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.21483265734405</v>
+        <v>29.51863553432791</v>
       </c>
       <c r="D62" t="n">
-        <v>4.432192872970711</v>
+        <v>5.329853891111066</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.32854873046024</v>
+        <v>28.50895868324361</v>
       </c>
       <c r="D63" t="n">
-        <v>5.0567211931126</v>
+        <v>5.014414584967763</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.90529797809661</v>
+        <v>27.93512574048965</v>
       </c>
       <c r="D64" t="n">
-        <v>5.004266304976935</v>
+        <v>5.653919104000782</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.71131994416352</v>
+        <v>27.53325027422976</v>
       </c>
       <c r="D65" t="n">
-        <v>5.278090054361025</v>
+        <v>4.92688391021541</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.59345763607877</v>
+        <v>26.11304605037341</v>
       </c>
       <c r="D66" t="n">
-        <v>5.549421316124018</v>
+        <v>5.14324520026326</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.69772935212063</v>
+        <v>24.00890509302933</v>
       </c>
       <c r="D67" t="n">
-        <v>5.557722812191327</v>
+        <v>5.271931180657029</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.25126148921453</v>
+        <v>24.47173872826687</v>
       </c>
       <c r="D68" t="n">
-        <v>4.635754028022625</v>
+        <v>5.624253040694156</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.33348508470253</v>
+        <v>21.91369532227753</v>
       </c>
       <c r="D69" t="n">
-        <v>5.269622216836029</v>
+        <v>4.98505010470872</v>
       </c>
     </row>
   </sheetData>
